--- a/presale/AOS Add to Cart (UFT One PB)/Default.xlsx
+++ b/presale/AOS Add to Cart (UFT One PB)/Default.xlsx
@@ -183,10 +183,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="FFFFFF"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="283845"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -469,7 +469,9 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95"/>
   <cols>
